--- a/Peaky Blinders.xlsx
+++ b/Peaky Blinders.xlsx
@@ -5,19 +5,52 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Repositorios\CDados_Projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Edson Mendonça\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73BC5F95-3429-47FB-91EC-804EF4E4AB3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4DE7-9158-4BF6-B3DD-A561C7C71B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1822,7 +1855,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2142,20 +2175,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C301"/>
+  <dimension ref="A1:SU301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="C298" sqref="C298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.54296875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.2265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.36328125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2166,7 +2199,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2177,7 +2210,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -2185,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -2193,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2201,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
@@ -2209,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2225,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -2241,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2257,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2265,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2273,7 +2306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2289,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
@@ -2297,7 +2330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -2305,7 +2338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -2313,7 +2346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -2321,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -2329,7 +2362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -2337,7 +2370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
@@ -2345,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>23</v>
       </c>
@@ -2353,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
@@ -2369,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>26</v>
       </c>
@@ -2377,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
@@ -2385,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
@@ -2393,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -2401,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>30</v>
       </c>
@@ -2409,7 +2442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +2450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>32</v>
       </c>
@@ -2425,7 +2458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
@@ -2441,7 +2474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
@@ -2449,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
@@ -2457,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
@@ -2465,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
@@ -2473,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
@@ -2481,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
@@ -2489,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
@@ -2497,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
@@ -2505,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
@@ -2513,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
@@ -2521,7 +2554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
@@ -2545,7 +2578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
@@ -2553,7 +2586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>49</v>
       </c>
@@ -2561,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>50</v>
       </c>
@@ -2569,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>51</v>
       </c>
@@ -2577,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>52</v>
       </c>
@@ -2585,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>53</v>
       </c>
@@ -2593,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>54</v>
       </c>
@@ -2601,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>55</v>
       </c>
@@ -2609,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>56</v>
       </c>
@@ -2617,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>57</v>
       </c>
@@ -2625,7 +2658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>58</v>
       </c>
@@ -2633,7 +2666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>59</v>
       </c>
@@ -2641,12 +2674,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>61</v>
       </c>
@@ -2654,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>62</v>
       </c>
@@ -2662,7 +2695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>63</v>
       </c>
@@ -2670,7 +2703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>64</v>
       </c>
@@ -2678,7 +2711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>65</v>
       </c>
@@ -2686,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>66</v>
       </c>
@@ -2694,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>67</v>
       </c>
@@ -2702,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>68</v>
       </c>
@@ -2710,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>69</v>
       </c>
@@ -2718,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>70</v>
       </c>
@@ -2726,7 +2759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>71</v>
       </c>
@@ -2734,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>72</v>
       </c>
@@ -2742,7 +2775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>73</v>
       </c>
@@ -2750,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>74</v>
       </c>
@@ -2758,7 +2791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>75</v>
       </c>
@@ -2766,7 +2799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>76</v>
       </c>
@@ -2774,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>78</v>
       </c>
@@ -2790,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>79</v>
       </c>
@@ -2798,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2814,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>82</v>
       </c>
@@ -2822,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>83</v>
       </c>
@@ -2830,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>84</v>
       </c>
@@ -2838,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>85</v>
       </c>
@@ -2846,7 +2879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>86</v>
       </c>
@@ -2854,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>87</v>
       </c>
@@ -2862,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>88</v>
       </c>
@@ -2870,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>89</v>
       </c>
@@ -2878,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>90</v>
       </c>
@@ -2886,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>91</v>
       </c>
@@ -2894,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>92</v>
       </c>
@@ -2902,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>93</v>
       </c>
@@ -2910,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>94</v>
       </c>
@@ -2918,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>95</v>
       </c>
@@ -2926,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>96</v>
       </c>
@@ -2934,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>97</v>
       </c>
@@ -2942,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>98</v>
       </c>
@@ -2950,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>99</v>
       </c>
@@ -2958,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>100</v>
       </c>
@@ -2966,7 +2999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>101</v>
       </c>
@@ -2974,7 +3007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>102</v>
       </c>
@@ -2982,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>103</v>
       </c>
@@ -2990,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>104</v>
       </c>
@@ -2998,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>105</v>
       </c>
@@ -3006,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>106</v>
       </c>
@@ -3014,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>107</v>
       </c>
@@ -3022,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>108</v>
       </c>
@@ -3030,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>109</v>
       </c>
@@ -3038,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>110</v>
       </c>
@@ -3046,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>111</v>
       </c>
@@ -3054,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>112</v>
       </c>
@@ -3062,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>113</v>
       </c>
@@ -3070,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>114</v>
       </c>
@@ -3078,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>115</v>
       </c>
@@ -3086,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>116</v>
       </c>
@@ -3094,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>117</v>
       </c>
@@ -3102,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>118</v>
       </c>
@@ -3110,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>119</v>
       </c>
@@ -3118,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>120</v>
       </c>
@@ -3126,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>121</v>
       </c>
@@ -3134,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>122</v>
       </c>
@@ -3142,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>123</v>
       </c>
@@ -3150,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>124</v>
       </c>
@@ -3158,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>125</v>
       </c>
@@ -3166,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>126</v>
       </c>
@@ -3174,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>128</v>
       </c>
@@ -3190,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>129</v>
       </c>
@@ -3198,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>130</v>
       </c>
@@ -3206,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>131</v>
       </c>
@@ -3214,7 +3247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>132</v>
       </c>
@@ -3222,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>133</v>
       </c>
@@ -3230,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>134</v>
       </c>
@@ -3238,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>135</v>
       </c>
@@ -3246,7 +3279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>136</v>
       </c>
@@ -3254,7 +3287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>137</v>
       </c>
@@ -3262,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>138</v>
       </c>
@@ -3270,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>139</v>
       </c>
@@ -3278,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>140</v>
       </c>
@@ -3286,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>141</v>
       </c>
@@ -3294,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>142</v>
       </c>
@@ -3302,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>143</v>
       </c>
@@ -3310,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>144</v>
       </c>
@@ -3318,7 +3351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>145</v>
       </c>
@@ -3326,7 +3359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>146</v>
       </c>
@@ -3334,7 +3367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>147</v>
       </c>
@@ -3342,7 +3375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>148</v>
       </c>
@@ -3350,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>149</v>
       </c>
@@ -3358,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -3366,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -3374,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -3382,7 +3415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -3390,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>154</v>
       </c>
@@ -3398,7 +3431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>155</v>
       </c>
@@ -3406,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>156</v>
       </c>
@@ -3414,7 +3447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>157</v>
       </c>
@@ -3422,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>158</v>
       </c>
@@ -3430,7 +3463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>159</v>
       </c>
@@ -3438,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>160</v>
       </c>
@@ -3446,7 +3479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>161</v>
       </c>
@@ -3454,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>162</v>
       </c>
@@ -3462,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>163</v>
       </c>
@@ -3470,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>164</v>
       </c>
@@ -3478,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>165</v>
       </c>
@@ -3486,7 +3519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>166</v>
       </c>
@@ -3494,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>167</v>
       </c>
@@ -3502,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>168</v>
       </c>
@@ -3510,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>169</v>
       </c>
@@ -3518,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>170</v>
       </c>
@@ -3526,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>171</v>
       </c>
@@ -3534,7 +3567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>172</v>
       </c>
@@ -3542,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>173</v>
       </c>
@@ -3550,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>174</v>
       </c>
@@ -3558,7 +3591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>175</v>
       </c>
@@ -3566,7 +3599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>176</v>
       </c>
@@ -3574,7 +3607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>177</v>
       </c>
@@ -3582,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>178</v>
       </c>
@@ -3590,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>179</v>
       </c>
@@ -3598,7 +3631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>180</v>
       </c>
@@ -3606,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>181</v>
       </c>
@@ -3614,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>182</v>
       </c>
@@ -3622,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>183</v>
       </c>
@@ -3630,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>184</v>
       </c>
@@ -3638,7 +3671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>185</v>
       </c>
@@ -3646,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>186</v>
       </c>
@@ -3654,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>187</v>
       </c>
@@ -3662,7 +3695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>188</v>
       </c>
@@ -3670,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>189</v>
       </c>
@@ -3678,7 +3711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>190</v>
       </c>
@@ -3686,7 +3719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>191</v>
       </c>
@@ -3694,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>192</v>
       </c>
@@ -3702,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>193</v>
       </c>
@@ -3710,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>194</v>
       </c>
@@ -3718,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>195</v>
       </c>
@@ -3726,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>196</v>
       </c>
@@ -3734,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>197</v>
       </c>
@@ -3742,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>198</v>
       </c>
@@ -3750,7 +3783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>199</v>
       </c>
@@ -3758,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>200</v>
       </c>
@@ -3766,504 +3799,2820 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="209" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="210" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="211" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="212" spans="1:1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="213" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="217" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="221" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="222" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="223" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:515" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B232">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="L233" cm="1">
+        <f t="array" aca="1" ref="L233:SU233" ca="1">+AC233:TL233</f>
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="CZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="DZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ED233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ER233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ES233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ET233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="EZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="FZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="GZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="HZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ID233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="II233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="IZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="JZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="KZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="LZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ME233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ML233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="MZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ND233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="NZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ON233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="OZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="PZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="QZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RT233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RV233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RW233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RX233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RY233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="RZ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SA233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SB233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SC233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SD233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SE233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SF233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SG233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SH233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SI233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SJ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SK233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SL233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SM233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SN233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SO233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SP233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SQ233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SR233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SS233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="ST233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+      <c r="SU233">
+        <f ca="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B234">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="240" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B239">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="241" spans="1:1" ht="118" x14ac:dyDescent="0.75">
+      <c r="B240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="242" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="243" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="245" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B244">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="247" spans="1:1" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="B246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="248" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B247">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="249" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="250" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="251" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B250">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="252" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="254" spans="1:1" ht="59" x14ac:dyDescent="0.75">
+      <c r="B253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="255" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="256" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="259" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="260" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="261" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="264" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="265" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="267" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="269" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="270" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="271" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="272" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B271">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="273" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B272">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="274" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B273">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="275" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="277" spans="1:1" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="B276">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="278" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B277">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="279" spans="1:1" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="B278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="280" spans="1:1" ht="59" x14ac:dyDescent="0.75">
+      <c r="B279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="281" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B280">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="282" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B281">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B282">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="287" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="288" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="292" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B292">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="295" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="296" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="297" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B297">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:1" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="B299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="B300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>300</v>
+      </c>
+      <c r="B301">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4276,1011 +6625,1011 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>501</v>
       </c>

--- a/Peaky Blinders.xlsx
+++ b/Peaky Blinders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Edson Mendonça\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Repositorios\CDados_Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACE4DE7-9158-4BF6-B3DD-A561C7C71B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB2351-60CE-40EE-B807-7E0FB786F0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="507">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1758,6 +1758,12 @@
   </si>
   <si>
     <t>Crítica sobre a série - positivo ou negativo, se está assitindo, ou entendendo etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>porcentagem de tweets relevantes</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1795,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1812,20 +1818,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1836,6 +1861,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,7 +1885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2175,1880 +2205,1880 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:SU301"/>
+  <dimension ref="A1:SU302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="C298" sqref="C298"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="52.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="52.54296875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:3" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+    <row r="41" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+    <row r="44" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+    <row r="46" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+    <row r="47" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+    <row r="48" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+    <row r="49" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+    <row r="50" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+    <row r="56" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+    <row r="57" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+    <row r="59" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+    <row r="60" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+    <row r="61" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+    <row r="62" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+    <row r="66" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+    <row r="68" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+    <row r="70" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+    <row r="72" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B72">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+    <row r="74" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
+    <row r="82" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
+    <row r="84" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+    <row r="87" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+    <row r="88" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
+    <row r="90" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
+    <row r="91" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
+    <row r="92" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
+    <row r="94" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+    <row r="95" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
+    <row r="97" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
+    <row r="99" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
+    <row r="100" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
+    <row r="101" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B103">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
+    <row r="104" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
+    <row r="105" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
+    <row r="107" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B107">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
+    <row r="108" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B108">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
+    <row r="109" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B109">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="6" t="s">
+    <row r="110" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
+    <row r="112" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B112">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
+    <row r="115" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
+    <row r="118" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
+    <row r="119" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B119">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
+    <row r="120" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B120">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
+    <row r="121" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="6" t="s">
+    <row r="122" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B122">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
+    <row r="123" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B124">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
+    <row r="125" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B125">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="6" t="s">
+    <row r="126" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
+    <row r="127" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
+    <row r="128" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B128">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B129">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
+    <row r="130" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
+    <row r="132" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B132">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B133">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
+    <row r="134" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B134">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
+    <row r="135" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
       <c r="B135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
+    <row r="136" spans="1:2" ht="191.75" x14ac:dyDescent="0.75">
+      <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
       <c r="B136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
+    <row r="137" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B137">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
+    <row r="138" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B138">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
+    <row r="139" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
       <c r="B139">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
+    <row r="140" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
+    <row r="141" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="6" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
+    <row r="143" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B143">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
+    <row r="145" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="6" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
+    <row r="147" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A148" s="6" t="s">
+    <row r="148" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B148">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A150" s="6" t="s">
+    <row r="150" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B150">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
+    <row r="151" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A152" s="6" t="s">
+    <row r="152" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
+    <row r="153" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A154" s="6" t="s">
+    <row r="154" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B154">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
       <c r="B155">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A156" s="6" t="s">
+    <row r="156" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
+    <row r="157" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B157">
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
+    <row r="158" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="6" t="s">
+    <row r="160" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="6" t="s">
+    <row r="161" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="6" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A164" s="6" t="s">
+    <row r="164" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="6" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A166" s="6" t="s">
+    <row r="166" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
       <c r="B166">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A167" s="6" t="s">
+    <row r="167" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
+    <row r="168" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B168">
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="6" t="s">
+    <row r="169" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B170">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="6" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A173" s="6" t="s">
+    <row r="173" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="6" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B174">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="6" t="s">
+    <row r="175" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
+    <row r="176" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A177" s="6" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
       <c r="B177">
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A178" s="6" t="s">
+    <row r="178" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B178">
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B179">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A180" s="6" t="s">
+    <row r="180" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A181" s="6" t="s">
+    <row r="181" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B181">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A182" s="6" t="s">
+    <row r="182" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B182">
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="6" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B183">
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A184" s="6" t="s">
+    <row r="184" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B184">
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A185" s="6" t="s">
+    <row r="185" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B185">
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="6" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B186">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="6" t="s">
+    <row r="187" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B187">
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="6" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A189" s="6" t="s">
+    <row r="189" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B189">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="6" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A192" s="6" t="s">
+    <row r="192" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="6" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="6" t="s">
+    <row r="194" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="6" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="6" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="6" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A198" s="6" t="s">
+    <row r="198" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A199" s="6" t="s">
+    <row r="199" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B199">
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="6" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
+    <row r="201" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
       <c r="B201">
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A202" s="6" t="s">
+    <row r="202" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B202">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A203" s="6" t="s">
+    <row r="203" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B203">
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="6" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B204">
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="6" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="6" t="s">
+    <row r="206" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B206">
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A207" s="6" t="s">
+    <row r="207" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B207">
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A208" s="6" t="s">
+    <row r="208" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B208">
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A209" s="6" t="s">
+    <row r="209" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B209">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A210" s="6" t="s">
+    <row r="210" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
       <c r="B210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="6" t="s">
+    <row r="211" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B211">
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A212" s="6" t="s">
+    <row r="212" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B212">
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
+    <row r="213" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
       <c r="B213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="6" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B214">
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A215" s="6" t="s">
+    <row r="215" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B215">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B216">
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A217" s="6" t="s">
+    <row r="217" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B217">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="6" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B218">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="6" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="6" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B220">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
+    <row r="221" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
       <c r="B221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+    <row r="223" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B223">
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B224">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
+    <row r="225" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A226" s="6" t="s">
+    <row r="226" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B226">
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:515" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A227" s="6" t="s">
+    <row r="227" spans="1:515" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B227">
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A228" s="6" t="s">
+    <row r="228" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
       <c r="B228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A229" s="6" t="s">
+    <row r="229" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:515" ht="87" x14ac:dyDescent="0.35">
-      <c r="A230" s="6" t="s">
+    <row r="230" spans="1:515" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B230">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A231" s="6" t="s">
+    <row r="231" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B231">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A232" s="6" t="s">
+    <row r="232" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B232">
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:515" ht="87" x14ac:dyDescent="0.35">
-      <c r="A233" s="6" t="s">
+    <row r="233" spans="1:515" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
       <c r="B233">
@@ -6071,548 +6101,557 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A234" s="6" t="s">
+    <row r="234" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
+    <row r="235" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B235">
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A236" s="6" t="s">
+    <row r="236" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:515" x14ac:dyDescent="0.35">
-      <c r="A237" s="6" t="s">
+    <row r="237" spans="1:515" x14ac:dyDescent="0.75">
+      <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B237">
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:515" x14ac:dyDescent="0.35">
-      <c r="A238" s="6" t="s">
+    <row r="238" spans="1:515" x14ac:dyDescent="0.75">
+      <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B238">
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A239" s="6" t="s">
+    <row r="239" spans="1:515" x14ac:dyDescent="0.75">
+      <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B239">
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:515" ht="29" x14ac:dyDescent="0.35">
-      <c r="A240" s="6" t="s">
+    <row r="240" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B240">
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="116" x14ac:dyDescent="0.35">
-      <c r="A241" s="6" t="s">
+    <row r="241" spans="1:2" ht="118" x14ac:dyDescent="0.75">
+      <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A242" s="6" t="s">
+    <row r="242" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B242">
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A243" s="6" t="s">
+    <row r="243" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B243">
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="6" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="6" t="s">
+    <row r="245" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B245">
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="6" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B246">
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A247" s="6" t="s">
+    <row r="247" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B247">
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A248" s="6" t="s">
+    <row r="248" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B248">
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A249" s="6" t="s">
+    <row r="249" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A250" s="6" t="s">
+    <row r="250" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B250">
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A251" s="6" t="s">
+    <row r="251" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A252" s="6" t="s">
+    <row r="252" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B252">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="6" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B253">
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
+    <row r="254" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B254">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A255" s="6" t="s">
+    <row r="255" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A256" s="6" t="s">
+    <row r="256" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B256">
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="6" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="6" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B258">
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B259">
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
       <c r="B260">
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A261" s="6" t="s">
+    <row r="261" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
       <c r="B261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="6" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
       <c r="B262">
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B263">
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A264" s="6" t="s">
+    <row r="264" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B264">
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A265" s="6" t="s">
+    <row r="265" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
       <c r="B265">
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="6" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A267" s="6" t="s">
+    <row r="267" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
       <c r="B267">
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="6" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
       <c r="B268">
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A269" s="6" t="s">
+    <row r="269" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B269">
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A270" s="6" t="s">
+    <row r="270" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B270">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
+    <row r="271" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
       <c r="B271">
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A272" s="6" t="s">
+    <row r="272" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
       <c r="B272">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A273" s="6" t="s">
+    <row r="273" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
       <c r="B273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A274" s="6" t="s">
+    <row r="274" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B274">
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A275" s="6" t="s">
+    <row r="275" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
       <c r="B275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="6" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
       <c r="B276">
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A277" s="6" t="s">
+    <row r="277" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
       <c r="B277">
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A278" s="6" t="s">
+    <row r="278" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
       <c r="B278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A279" s="6" t="s">
+    <row r="279" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
       <c r="B279">
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A280" s="6" t="s">
+    <row r="280" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
       <c r="B280">
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A281" s="6" t="s">
+    <row r="281" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
       <c r="B281">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A282" s="6" t="s">
+    <row r="282" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
       <c r="B282">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="6" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
       <c r="B283">
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="6" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B284">
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="6" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B285">
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="6" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B286">
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A287" s="6" t="s">
+    <row r="287" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B287">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A288" s="6" t="s">
+    <row r="288" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
       <c r="B288">
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A289" s="6" t="s">
+    <row r="289" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A290" s="6" t="s">
+    <row r="290" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
       <c r="B290">
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="6" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B291">
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A292" s="6" t="s">
+    <row r="292" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B292">
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="6" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B293">
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="6" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
       <c r="B294">
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A295" s="6" t="s">
+    <row r="295" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A295" s="3" t="s">
         <v>294</v>
       </c>
       <c r="B295">
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A296" s="6" t="s">
+    <row r="296" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A296" s="3" t="s">
         <v>295</v>
       </c>
       <c r="B296">
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A297" s="6" t="s">
+    <row r="297" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A297" s="3" t="s">
         <v>296</v>
       </c>
       <c r="B297">
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="6" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
       <c r="B298">
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="6" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
       <c r="B299">
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A300" s="6" t="s">
+    <row r="300" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
       <c r="B300">
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="6" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
       <c r="B301">
         <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A302" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B302">
+        <f>SUM(B2:B301)/300</f>
+        <v>0.50666666666666671</v>
       </c>
     </row>
   </sheetData>
@@ -6623,1018 +6662,1640 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A201"/>
+  <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView zoomScale="20" zoomScaleNormal="20" workbookViewId="0"/>
+    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A202" sqref="A202"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="81" style="3" customWidth="1"/>
+    <col min="2" max="2" width="43.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A2" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A3" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A4" s="3" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A5" s="3" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="59" x14ac:dyDescent="0.75">
+      <c r="A7" s="3" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A8" s="3" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A9" s="3" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A10" s="3" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A11" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A12" s="3" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A13" s="3" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A14" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A15" s="3" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
+      <c r="A16" s="3" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A17" s="3" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A18" s="3" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A19" s="3" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="236" x14ac:dyDescent="0.75">
+      <c r="A20" s="3" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A21" s="3" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A22" s="3" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A23" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A24" s="3" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A25" s="3" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A26" s="3" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A27" s="3" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A28" s="3" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A29" s="3" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A30" s="3" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A31" s="3" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A32" s="3" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A33" s="3" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A34" s="3" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A35" s="3" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A36" s="3" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A37" s="3" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A38" s="3" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A39" s="3" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A40" s="3" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A41" s="3" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A42" s="3" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A43" s="3" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A44" s="3" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A45" s="3" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A46" s="3" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A47" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A48" s="3" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="250.75" x14ac:dyDescent="0.75">
+      <c r="A49" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A50" s="3" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A51" s="3" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A52" s="3" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A53" s="3" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A54" s="3" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A55" s="3" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A56" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A57" s="3" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A58" s="3" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A59" s="3" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A60" s="3" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A61" s="3" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A62" s="3" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A63" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A64" s="3" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A65" s="3" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A66" s="3" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A67" s="3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A68" s="3" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A69" s="3" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="B69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A70" s="3" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="B70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A71" s="3" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A72" s="3" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A73" s="3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A74" s="3" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A75" s="3" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A76" s="3" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A77" s="3" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A78" s="3" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A79" s="3" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="B79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A81" s="3" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A82" s="3" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A83" s="3" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A84" s="3" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A85" s="3" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A86" s="3" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A87" s="3" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+      <c r="B87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A88" s="3" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+      <c r="B88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A89" s="3" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A90" s="3" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+      <c r="B90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A91" s="3" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+      <c r="B91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A92" s="3" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A93" s="3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A94" s="3" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+      <c r="B94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A95" s="3" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+      <c r="B95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A96" s="3" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A97" s="3" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+      <c r="B97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A98" s="3" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A99" s="3" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="295" x14ac:dyDescent="0.75">
+      <c r="A100" s="3" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A101" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A102" s="3" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+      <c r="B102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A103" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A104" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A105" s="3" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+      <c r="B105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A106" s="3" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A107" s="3" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A108" s="3" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A109" s="3" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+      <c r="B109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A110" s="3" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+      <c r="B110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+      <c r="A111" s="3" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
+      <c r="B111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A112" s="3" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A113" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+      <c r="B113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A114" s="3" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+      <c r="B114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A115" s="3" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+      <c r="B115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A116" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+      <c r="B116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A117" s="3" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+      <c r="B117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A118" s="3" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+      <c r="B118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A119" s="3" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+      <c r="B119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A120" s="3" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+      <c r="B120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A121" s="3" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
+      <c r="B121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A122" s="3" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+      <c r="B122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A123" s="3" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+      <c r="B123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="206.5" x14ac:dyDescent="0.75">
+      <c r="A124" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+      <c r="B124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A125" s="3" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+      <c r="B125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A126" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+      <c r="B126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A127" s="3" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+      <c r="B127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A128" s="3" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+      <c r="B128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A129" s="3" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+      <c r="B129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A130" s="3" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
+      <c r="B130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A131" s="3" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132" t="s">
+      <c r="B131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A132" s="3" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133" t="s">
+      <c r="B132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A133" s="3" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134" t="s">
+      <c r="B133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A134" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135" t="s">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A135" s="3" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
+      <c r="B135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A136" s="3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
+      <c r="B136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+      <c r="A137" s="3" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138" t="s">
+      <c r="B137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A138" s="3" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139" t="s">
+      <c r="B138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A139" s="3" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140" t="s">
+      <c r="B139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A140" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
+      <c r="B140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A141" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
+      <c r="B141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A142" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
+      <c r="B142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A143" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144" t="s">
+      <c r="B143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A144" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145" t="s">
+      <c r="B144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A145" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146" t="s">
+      <c r="B145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A146" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147" t="s">
+      <c r="B146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A147" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A148" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149" t="s">
+      <c r="B148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A149" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150" t="s">
+      <c r="B149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A150" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151" t="s">
+      <c r="B150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A151" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152" t="s">
+      <c r="B151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A152" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153" t="s">
+      <c r="B152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A153" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+      <c r="B153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A154" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
+      <c r="B154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A155" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+      <c r="B155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A156" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+      <c r="B156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A157" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+      <c r="B157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A158" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+      <c r="B158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A159" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
+      <c r="B159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A160" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
+      <c r="B160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A161" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
+      <c r="B161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="A162" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
+      <c r="B162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A163" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
+      <c r="B163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A164" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
+      <c r="B164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A165" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
+      <c r="B165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A166" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
+      <c r="B166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A167" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
+      <c r="B167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A168" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
+      <c r="B168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A169" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
+      <c r="B169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A170" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
+      <c r="B170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A171" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
+      <c r="B171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A172" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="B172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A173" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A174" s="3" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A175" s="3" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A176" s="3" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A177" s="3" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A178" s="3" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A179" s="3" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A180" s="3" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A181" s="3" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A182" s="3" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A183" s="3" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A184" s="3" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A185" s="3" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A186" s="3" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A187" s="3" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A188" s="3" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A189" s="3" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A190" s="3" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A191" s="3" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A192" s="3" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A193" s="3" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A194" s="3" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="A195" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A196" s="3" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A197" s="3" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+      <c r="A198" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+      <c r="A199" s="3" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A200" s="3" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A201" s="3" t="s">
         <v>501</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A202" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B202">
+        <f>SUM(B2:B201)/200</f>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Peaky Blinders.xlsx
+++ b/Peaky Blinders.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Repositorios\CDados_Projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Edson Mendonça\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\2° Semestre\CDADOS\CDados_Projeto1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AB2351-60CE-40EE-B807-7E0FB786F0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5884B-3308-4C93-9DD1-1BD6A2825BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="505">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1752,12 +1752,6 @@
   </si>
   <si>
     <t>Classificação</t>
-  </si>
-  <si>
-    <t>Critério de Classificação</t>
-  </si>
-  <si>
-    <t>Crítica sobre a série - positivo ou negativo, se está assitindo, ou entendendo etc.</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -1885,7 +1879,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2207,40 +2201,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:SU302"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="52.54296875" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.36328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -2248,7 +2238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2256,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2264,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2272,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2280,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -2288,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2304,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -2328,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -2336,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -2344,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
@@ -2352,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -2360,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -2368,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
@@ -2376,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
@@ -2384,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
@@ -2392,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2400,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>23</v>
       </c>
@@ -2416,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2424,7 +2414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>25</v>
       </c>
@@ -2432,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>26</v>
       </c>
@@ -2440,7 +2430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -2448,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>28</v>
       </c>
@@ -2456,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>29</v>
       </c>
@@ -2464,7 +2454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -2488,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
@@ -2496,7 +2486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2504,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>35</v>
       </c>
@@ -2512,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -2520,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -2528,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>38</v>
       </c>
@@ -2536,7 +2526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>39</v>
       </c>
@@ -2544,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>40</v>
       </c>
@@ -2552,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>41</v>
       </c>
@@ -2560,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2568,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>43</v>
       </c>
@@ -2576,7 +2566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
@@ -2584,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>45</v>
       </c>
@@ -2592,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>46</v>
       </c>
@@ -2600,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -2608,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
@@ -2616,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>49</v>
       </c>
@@ -2624,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
@@ -2632,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>51</v>
       </c>
@@ -2640,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
@@ -2648,7 +2638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>53</v>
       </c>
@@ -2656,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>54</v>
       </c>
@@ -2664,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>55</v>
       </c>
@@ -2672,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -2680,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -2688,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>58</v>
       </c>
@@ -2696,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
@@ -2704,12 +2694,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
@@ -2717,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>62</v>
       </c>
@@ -2725,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>63</v>
       </c>
@@ -2733,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
@@ -2741,7 +2731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
@@ -2749,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
@@ -2757,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
@@ -2765,7 +2755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
@@ -2773,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>69</v>
       </c>
@@ -2781,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>70</v>
       </c>
@@ -2789,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>71</v>
       </c>
@@ -2797,7 +2787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
@@ -2805,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
@@ -2813,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
@@ -2821,7 +2811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
@@ -2829,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>76</v>
       </c>
@@ -2837,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
@@ -2845,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
@@ -2853,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>79</v>
       </c>
@@ -2861,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>80</v>
       </c>
@@ -2869,7 +2859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>81</v>
       </c>
@@ -2877,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>82</v>
       </c>
@@ -2885,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>83</v>
       </c>
@@ -2893,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>84</v>
       </c>
@@ -2901,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>85</v>
       </c>
@@ -2909,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>86</v>
       </c>
@@ -2917,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>87</v>
       </c>
@@ -2925,7 +2915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>88</v>
       </c>
@@ -2933,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>89</v>
       </c>
@@ -2941,7 +2931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>90</v>
       </c>
@@ -2949,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>91</v>
       </c>
@@ -2957,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>92</v>
       </c>
@@ -2965,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>93</v>
       </c>
@@ -2973,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>94</v>
       </c>
@@ -2981,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>95</v>
       </c>
@@ -2989,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -2997,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
@@ -3005,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>98</v>
       </c>
@@ -3013,7 +3003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>99</v>
       </c>
@@ -3021,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>100</v>
       </c>
@@ -3029,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>101</v>
       </c>
@@ -3037,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>102</v>
       </c>
@@ -3045,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>103</v>
       </c>
@@ -3053,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>104</v>
       </c>
@@ -3061,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>105</v>
       </c>
@@ -3069,7 +3059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>106</v>
       </c>
@@ -3077,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>107</v>
       </c>
@@ -3085,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>108</v>
       </c>
@@ -3093,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>109</v>
       </c>
@@ -3101,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>110</v>
       </c>
@@ -3109,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>111</v>
       </c>
@@ -3117,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>112</v>
       </c>
@@ -3125,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>113</v>
       </c>
@@ -3133,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>114</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>115</v>
       </c>
@@ -3149,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>116</v>
       </c>
@@ -3157,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>117</v>
       </c>
@@ -3165,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>118</v>
       </c>
@@ -3173,7 +3163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>119</v>
       </c>
@@ -3181,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>120</v>
       </c>
@@ -3189,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>121</v>
       </c>
@@ -3197,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -3205,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>123</v>
       </c>
@@ -3213,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>124</v>
       </c>
@@ -3221,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>125</v>
       </c>
@@ -3229,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>126</v>
       </c>
@@ -3237,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>127</v>
       </c>
@@ -3245,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>128</v>
       </c>
@@ -3253,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>129</v>
       </c>
@@ -3261,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>130</v>
       </c>
@@ -3269,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>131</v>
       </c>
@@ -3277,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>132</v>
       </c>
@@ -3285,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>133</v>
       </c>
@@ -3293,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>134</v>
       </c>
@@ -3301,7 +3291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="191.75" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>135</v>
       </c>
@@ -3309,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>136</v>
       </c>
@@ -3317,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>137</v>
       </c>
@@ -3325,7 +3315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>138</v>
       </c>
@@ -3333,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>139</v>
       </c>
@@ -3341,7 +3331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>140</v>
       </c>
@@ -3349,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>141</v>
       </c>
@@ -3357,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>142</v>
       </c>
@@ -3365,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>143</v>
       </c>
@@ -3373,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>144</v>
       </c>
@@ -3381,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>145</v>
       </c>
@@ -3389,7 +3379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>146</v>
       </c>
@@ -3397,7 +3387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>147</v>
       </c>
@@ -3405,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>148</v>
       </c>
@@ -3413,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>149</v>
       </c>
@@ -3421,7 +3411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>150</v>
       </c>
@@ -3429,7 +3419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>151</v>
       </c>
@@ -3437,7 +3427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>152</v>
       </c>
@@ -3445,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>153</v>
       </c>
@@ -3453,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>154</v>
       </c>
@@ -3461,7 +3451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>155</v>
       </c>
@@ -3469,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>156</v>
       </c>
@@ -3477,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>157</v>
       </c>
@@ -3485,7 +3475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>158</v>
       </c>
@@ -3493,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>159</v>
       </c>
@@ -3501,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>160</v>
       </c>
@@ -3509,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>161</v>
       </c>
@@ -3517,7 +3507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>162</v>
       </c>
@@ -3525,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>163</v>
       </c>
@@ -3533,7 +3523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>164</v>
       </c>
@@ -3541,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>165</v>
       </c>
@@ -3549,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>166</v>
       </c>
@@ -3557,7 +3547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>167</v>
       </c>
@@ -3565,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>168</v>
       </c>
@@ -3573,7 +3563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>169</v>
       </c>
@@ -3581,7 +3571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>170</v>
       </c>
@@ -3589,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>171</v>
       </c>
@@ -3597,7 +3587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>172</v>
       </c>
@@ -3605,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>173</v>
       </c>
@@ -3613,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
@@ -3621,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>175</v>
       </c>
@@ -3629,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>176</v>
       </c>
@@ -3637,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>177</v>
       </c>
@@ -3645,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>178</v>
       </c>
@@ -3653,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>179</v>
       </c>
@@ -3661,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>180</v>
       </c>
@@ -3669,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>181</v>
       </c>
@@ -3677,7 +3667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>182</v>
       </c>
@@ -3685,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>183</v>
       </c>
@@ -3693,7 +3683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>184</v>
       </c>
@@ -3701,7 +3691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>185</v>
       </c>
@@ -3709,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>186</v>
       </c>
@@ -3717,7 +3707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>187</v>
       </c>
@@ -3725,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>188</v>
       </c>
@@ -3733,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>189</v>
       </c>
@@ -3741,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>190</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>191</v>
       </c>
@@ -3757,7 +3747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>192</v>
       </c>
@@ -3765,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>193</v>
       </c>
@@ -3773,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>194</v>
       </c>
@@ -3781,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>195</v>
       </c>
@@ -3789,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>196</v>
       </c>
@@ -3797,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>197</v>
       </c>
@@ -3805,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>198</v>
       </c>
@@ -3813,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>199</v>
       </c>
@@ -3821,7 +3811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>200</v>
       </c>
@@ -3829,7 +3819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
         <v>201</v>
       </c>
@@ -3837,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
         <v>202</v>
       </c>
@@ -3845,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
         <v>203</v>
       </c>
@@ -3853,7 +3843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
         <v>204</v>
       </c>
@@ -3861,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
         <v>205</v>
       </c>
@@ -3869,7 +3859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
         <v>206</v>
       </c>
@@ -3877,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
         <v>207</v>
       </c>
@@ -3885,7 +3875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
         <v>208</v>
       </c>
@@ -3893,7 +3883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
         <v>209</v>
       </c>
@@ -3901,7 +3891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
         <v>210</v>
       </c>
@@ -3909,7 +3899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="212" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
         <v>211</v>
       </c>
@@ -3917,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
         <v>212</v>
       </c>
@@ -3925,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
         <v>213</v>
       </c>
@@ -3933,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
         <v>214</v>
       </c>
@@ -3941,7 +3931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
         <v>215</v>
       </c>
@@ -3949,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
         <v>216</v>
       </c>
@@ -3957,7 +3947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
         <v>217</v>
       </c>
@@ -3965,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
         <v>218</v>
       </c>
@@ -3973,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
         <v>219</v>
       </c>
@@ -3981,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
         <v>220</v>
       </c>
@@ -3989,7 +3979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="222" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
         <v>221</v>
       </c>
@@ -3997,7 +3987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
         <v>222</v>
       </c>
@@ -4005,7 +3995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
         <v>223</v>
       </c>
@@ -4013,7 +4003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
         <v>224</v>
       </c>
@@ -4021,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
         <v>225</v>
       </c>
@@ -4029,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:515" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:515" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
         <v>226</v>
       </c>
@@ -4037,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
         <v>227</v>
       </c>
@@ -4045,7 +4035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
         <v>228</v>
       </c>
@@ -4053,7 +4043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:515" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
         <v>229</v>
       </c>
@@ -4061,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
         <v>230</v>
       </c>
@@ -4069,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="232" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
         <v>231</v>
       </c>
@@ -4077,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:515" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
         <v>232</v>
       </c>
@@ -6101,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
         <v>233</v>
       </c>
@@ -6109,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
         <v>234</v>
       </c>
@@ -6117,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:515" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
         <v>235</v>
       </c>
@@ -6125,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:515" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
@@ -6133,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:515" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
         <v>237</v>
       </c>
@@ -6141,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:515" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
         <v>238</v>
       </c>
@@ -6149,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:515" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
         <v>239</v>
       </c>
@@ -6157,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="118" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
         <v>240</v>
       </c>
@@ -6165,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
         <v>241</v>
       </c>
@@ -6173,7 +6163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
         <v>242</v>
       </c>
@@ -6181,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
         <v>243</v>
       </c>
@@ -6189,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
         <v>244</v>
       </c>
@@ -6197,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
         <v>245</v>
       </c>
@@ -6205,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
         <v>246</v>
       </c>
@@ -6213,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
         <v>247</v>
       </c>
@@ -6221,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
         <v>248</v>
       </c>
@@ -6229,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
         <v>249</v>
       </c>
@@ -6237,7 +6227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
         <v>250</v>
       </c>
@@ -6245,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
         <v>251</v>
       </c>
@@ -6253,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
         <v>252</v>
       </c>
@@ -6261,7 +6251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
         <v>253</v>
       </c>
@@ -6269,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
         <v>254</v>
       </c>
@@ -6277,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
         <v>255</v>
       </c>
@@ -6285,7 +6275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
         <v>256</v>
       </c>
@@ -6293,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
         <v>257</v>
       </c>
@@ -6301,7 +6291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
         <v>258</v>
       </c>
@@ -6309,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
         <v>259</v>
       </c>
@@ -6317,7 +6307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
         <v>260</v>
       </c>
@@ -6325,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
         <v>261</v>
       </c>
@@ -6333,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
         <v>262</v>
       </c>
@@ -6341,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
         <v>263</v>
       </c>
@@ -6349,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
         <v>264</v>
       </c>
@@ -6357,7 +6347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
         <v>265</v>
       </c>
@@ -6365,7 +6355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
         <v>266</v>
       </c>
@@ -6373,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
         <v>267</v>
       </c>
@@ -6381,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
         <v>268</v>
       </c>
@@ -6389,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
         <v>269</v>
       </c>
@@ -6397,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
         <v>270</v>
       </c>
@@ -6405,7 +6395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
         <v>271</v>
       </c>
@@ -6413,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
         <v>272</v>
       </c>
@@ -6421,7 +6411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
         <v>273</v>
       </c>
@@ -6429,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
         <v>274</v>
       </c>
@@ -6437,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
         <v>275</v>
       </c>
@@ -6445,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
         <v>276</v>
       </c>
@@ -6453,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
         <v>277</v>
       </c>
@@ -6461,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
         <v>278</v>
       </c>
@@ -6469,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
         <v>279</v>
       </c>
@@ -6477,7 +6467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
         <v>280</v>
       </c>
@@ -6485,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
         <v>281</v>
       </c>
@@ -6493,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
         <v>282</v>
       </c>
@@ -6501,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
         <v>283</v>
       </c>
@@ -6509,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
         <v>284</v>
       </c>
@@ -6517,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
         <v>285</v>
       </c>
@@ -6525,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
         <v>286</v>
       </c>
@@ -6533,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
         <v>287</v>
       </c>
@@ -6541,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
         <v>288</v>
       </c>
@@ -6549,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
         <v>289</v>
       </c>
@@ -6557,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
         <v>290</v>
       </c>
@@ -6565,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="292" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
         <v>291</v>
       </c>
@@ -6573,7 +6563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
         <v>292</v>
       </c>
@@ -6581,7 +6571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
         <v>293</v>
       </c>
@@ -6589,7 +6579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
         <v>294</v>
       </c>
@@ -6597,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
         <v>295</v>
       </c>
@@ -6605,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
         <v>296</v>
       </c>
@@ -6613,7 +6603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
         <v>297</v>
       </c>
@@ -6621,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
         <v>298</v>
       </c>
@@ -6629,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
         <v>299</v>
       </c>
@@ -6637,7 +6627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
         <v>300</v>
       </c>
@@ -6645,9 +6635,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B302">
         <f>SUM(B2:B301)/300</f>
@@ -6664,17 +6654,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q202"/>
   <sheetViews>
-    <sheetView topLeftCell="A193" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A202" sqref="A202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="81" style="3" customWidth="1"/>
     <col min="2" max="2" width="43.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>301</v>
       </c>
@@ -6682,7 +6672,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>302</v>
       </c>
@@ -6690,7 +6680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>303</v>
       </c>
@@ -6698,7 +6688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>304</v>
       </c>
@@ -6706,7 +6696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>305</v>
       </c>
@@ -6714,7 +6704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>306</v>
       </c>
@@ -6722,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="59" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>307</v>
       </c>
@@ -6730,7 +6720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>308</v>
       </c>
@@ -6738,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>309</v>
       </c>
@@ -6746,7 +6736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>310</v>
       </c>
@@ -6754,7 +6744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>311</v>
       </c>
@@ -6762,7 +6752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>312</v>
       </c>
@@ -6770,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>313</v>
       </c>
@@ -6778,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>314</v>
       </c>
@@ -6786,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>315</v>
       </c>
@@ -6794,10 +6784,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.75">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>316</v>
       </c>
@@ -6805,7 +6795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>317</v>
       </c>
@@ -6813,7 +6803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>318</v>
       </c>
@@ -6821,7 +6811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>319</v>
       </c>
@@ -6829,7 +6819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="236" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>320</v>
       </c>
@@ -6837,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>321</v>
       </c>
@@ -6845,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>322</v>
       </c>
@@ -6853,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>323</v>
       </c>
@@ -6861,7 +6851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>324</v>
       </c>
@@ -6869,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>325</v>
       </c>
@@ -6877,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>326</v>
       </c>
@@ -6885,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>327</v>
       </c>
@@ -6893,7 +6883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>328</v>
       </c>
@@ -6901,7 +6891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>329</v>
       </c>
@@ -6909,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>330</v>
       </c>
@@ -6917,7 +6907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>331</v>
       </c>
@@ -6925,7 +6915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>332</v>
       </c>
@@ -6933,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>333</v>
       </c>
@@ -6941,7 +6931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>334</v>
       </c>
@@ -6949,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>335</v>
       </c>
@@ -6957,7 +6947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>336</v>
       </c>
@@ -6965,7 +6955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>337</v>
       </c>
@@ -6973,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>338</v>
       </c>
@@ -6981,7 +6971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>339</v>
       </c>
@@ -6989,7 +6979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>340</v>
       </c>
@@ -6997,7 +6987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>341</v>
       </c>
@@ -7005,7 +6995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>342</v>
       </c>
@@ -7013,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>343</v>
       </c>
@@ -7021,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>344</v>
       </c>
@@ -7029,7 +7019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>345</v>
       </c>
@@ -7037,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>346</v>
       </c>
@@ -7045,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>347</v>
       </c>
@@ -7053,7 +7043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>348</v>
       </c>
@@ -7061,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="250.75" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>349</v>
       </c>
@@ -7069,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>350</v>
       </c>
@@ -7077,7 +7067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>351</v>
       </c>
@@ -7085,7 +7075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>352</v>
       </c>
@@ -7093,7 +7083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
         <v>353</v>
       </c>
@@ -7101,7 +7091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>354</v>
       </c>
@@ -7109,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>355</v>
       </c>
@@ -7117,7 +7107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>356</v>
       </c>
@@ -7125,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>357</v>
       </c>
@@ -7133,7 +7123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>358</v>
       </c>
@@ -7141,7 +7131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>359</v>
       </c>
@@ -7149,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>360</v>
       </c>
@@ -7157,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>361</v>
       </c>
@@ -7165,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>362</v>
       </c>
@@ -7173,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>363</v>
       </c>
@@ -7181,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>364</v>
       </c>
@@ -7189,7 +7179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>365</v>
       </c>
@@ -7197,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>366</v>
       </c>
@@ -7205,7 +7195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>367</v>
       </c>
@@ -7213,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>368</v>
       </c>
@@ -7221,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>369</v>
       </c>
@@ -7229,7 +7219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>370</v>
       </c>
@@ -7237,7 +7227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>371</v>
       </c>
@@ -7245,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>372</v>
       </c>
@@ -7253,7 +7243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>373</v>
       </c>
@@ -7261,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>374</v>
       </c>
@@ -7269,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>375</v>
       </c>
@@ -7277,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>376</v>
       </c>
@@ -7285,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>377</v>
       </c>
@@ -7293,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>378</v>
       </c>
@@ -7301,7 +7291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>379</v>
       </c>
@@ -7309,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>380</v>
       </c>
@@ -7317,7 +7307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>381</v>
       </c>
@@ -7325,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>382</v>
       </c>
@@ -7333,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>383</v>
       </c>
@@ -7341,7 +7331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>384</v>
       </c>
@@ -7349,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>385</v>
       </c>
@@ -7357,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>386</v>
       </c>
@@ -7365,7 +7355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>387</v>
       </c>
@@ -7373,7 +7363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>388</v>
       </c>
@@ -7381,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>389</v>
       </c>
@@ -7389,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>390</v>
       </c>
@@ -7397,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>391</v>
       </c>
@@ -7405,7 +7395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>392</v>
       </c>
@@ -7413,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>393</v>
       </c>
@@ -7421,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>394</v>
       </c>
@@ -7429,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>395</v>
       </c>
@@ -7437,7 +7427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>396</v>
       </c>
@@ -7445,7 +7435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>397</v>
       </c>
@@ -7453,7 +7443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>398</v>
       </c>
@@ -7461,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>399</v>
       </c>
@@ -7469,7 +7459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="295" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>400</v>
       </c>
@@ -7477,7 +7467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>401</v>
       </c>
@@ -7485,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>402</v>
       </c>
@@ -7493,7 +7483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>403</v>
       </c>
@@ -7501,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>404</v>
       </c>
@@ -7509,7 +7499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>405</v>
       </c>
@@ -7517,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>406</v>
       </c>
@@ -7525,7 +7515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>407</v>
       </c>
@@ -7533,7 +7523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>408</v>
       </c>
@@ -7541,7 +7531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>409</v>
       </c>
@@ -7549,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>410</v>
       </c>
@@ -7557,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="73.75" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>411</v>
       </c>
@@ -7565,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>412</v>
       </c>
@@ -7573,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>413</v>
       </c>
@@ -7581,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>414</v>
       </c>
@@ -7589,7 +7579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>415</v>
       </c>
@@ -7597,7 +7587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>416</v>
       </c>
@@ -7605,7 +7595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>417</v>
       </c>
@@ -7613,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>418</v>
       </c>
@@ -7621,7 +7611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>419</v>
       </c>
@@ -7629,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>420</v>
       </c>
@@ -7637,7 +7627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>421</v>
       </c>
@@ -7645,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>422</v>
       </c>
@@ -7653,7 +7643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>423</v>
       </c>
@@ -7661,7 +7651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="206.5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>424</v>
       </c>
@@ -7669,7 +7659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>425</v>
       </c>
@@ -7677,7 +7667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>426</v>
       </c>
@@ -7685,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>427</v>
       </c>
@@ -7693,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>428</v>
       </c>
@@ -7701,7 +7691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>429</v>
       </c>
@@ -7709,7 +7699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>430</v>
       </c>
@@ -7717,7 +7707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>431</v>
       </c>
@@ -7725,7 +7715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>432</v>
       </c>
@@ -7733,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>433</v>
       </c>
@@ -7741,7 +7731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>434</v>
       </c>
@@ -7749,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>435</v>
       </c>
@@ -7757,7 +7747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>436</v>
       </c>
@@ -7765,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="103.25" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>437</v>
       </c>
@@ -7773,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>438</v>
       </c>
@@ -7781,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>439</v>
       </c>
@@ -7789,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>440</v>
       </c>
@@ -7797,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>441</v>
       </c>
@@ -7805,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>442</v>
       </c>
@@ -7813,7 +7803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>443</v>
       </c>
@@ -7821,7 +7811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>444</v>
       </c>
@@ -7829,7 +7819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>445</v>
       </c>
@@ -7837,7 +7827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>446</v>
       </c>
@@ -7845,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>447</v>
       </c>
@@ -7853,7 +7843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>448</v>
       </c>
@@ -7861,7 +7851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>449</v>
       </c>
@@ -7869,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>450</v>
       </c>
@@ -7877,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>451</v>
       </c>
@@ -7885,7 +7875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>452</v>
       </c>
@@ -7893,7 +7883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>453</v>
       </c>
@@ -7901,7 +7891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>454</v>
       </c>
@@ -7909,7 +7899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
         <v>455</v>
       </c>
@@ -7917,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
         <v>456</v>
       </c>
@@ -7925,7 +7915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
         <v>457</v>
       </c>
@@ -7933,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
         <v>458</v>
       </c>
@@ -7941,7 +7931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
         <v>459</v>
       </c>
@@ -7949,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
         <v>460</v>
       </c>
@@ -7957,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
         <v>461</v>
       </c>
@@ -7965,7 +7955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="88.5" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
         <v>462</v>
       </c>
@@ -7973,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
         <v>463</v>
       </c>
@@ -7981,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
         <v>464</v>
       </c>
@@ -7989,7 +7979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
         <v>465</v>
       </c>
@@ -7997,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
         <v>466</v>
       </c>
@@ -8005,7 +7995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
         <v>467</v>
       </c>
@@ -8013,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
         <v>468</v>
       </c>
@@ -8021,7 +8011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
         <v>469</v>
       </c>
@@ -8029,7 +8019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
         <v>470</v>
       </c>
@@ -8037,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
         <v>471</v>
       </c>
@@ -8045,7 +8035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
         <v>472</v>
       </c>
@@ -8053,7 +8043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
         <v>473</v>
       </c>
@@ -8061,7 +8051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
         <v>474</v>
       </c>
@@ -8069,7 +8059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
         <v>475</v>
       </c>
@@ -8077,7 +8067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
         <v>476</v>
       </c>
@@ -8085,7 +8075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
         <v>477</v>
       </c>
@@ -8093,7 +8083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
         <v>478</v>
       </c>
@@ -8101,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
         <v>479</v>
       </c>
@@ -8109,7 +8099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
         <v>480</v>
       </c>
@@ -8117,7 +8107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
         <v>481</v>
       </c>
@@ -8125,7 +8115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
         <v>482</v>
       </c>
@@ -8133,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
         <v>483</v>
       </c>
@@ -8141,7 +8131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
         <v>484</v>
       </c>
@@ -8149,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
         <v>485</v>
       </c>
@@ -8157,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
         <v>486</v>
       </c>
@@ -8165,7 +8155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>487</v>
       </c>
@@ -8173,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
         <v>488</v>
       </c>
@@ -8181,7 +8171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
         <v>489</v>
       </c>
@@ -8189,7 +8179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
         <v>490</v>
       </c>
@@ -8197,7 +8187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
         <v>491</v>
       </c>
@@ -8205,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
         <v>492</v>
       </c>
@@ -8213,7 +8203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
         <v>493</v>
       </c>
@@ -8221,7 +8211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
         <v>494</v>
       </c>
@@ -8229,7 +8219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="44.25" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
         <v>495</v>
       </c>
@@ -8237,7 +8227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
         <v>496</v>
       </c>
@@ -8245,7 +8235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
         <v>497</v>
       </c>
@@ -8253,7 +8243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="29.5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
         <v>498</v>
       </c>
@@ -8261,7 +8251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="59" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
         <v>499</v>
       </c>
@@ -8269,7 +8259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
         <v>500</v>
       </c>
@@ -8277,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
         <v>501</v>
       </c>
@@ -8285,9 +8275,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B202">
         <f>SUM(B2:B201)/200</f>

--- a/Peaky Blinders.xlsx
+++ b/Peaky Blinders.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Edson Mendonça\OneDrive - Insper - Institudo de Ensino e Pesquisa\Documentos\2° Semestre\CDADOS\CDados_Projeto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/joseemrla_al_insper_edu_br/Documents/Documentos/2° Semestre/CDADOS/CDados_Projeto1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E5884B-3308-4C93-9DD1-1BD6A2825BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{20E5884B-3308-4C93-9DD1-1BD6A2825BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2359029-202F-4385-A557-DA97FA4F7DFB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="504">
   <si>
     <t>Treinamento</t>
   </si>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t>ninguém me decepciona porque eu pertenço á gangue dos peaky blinders https://t.co/xh0vv7sti8</t>
-  </si>
-  <si>
-    <t>@vascoduds peaky blinders está vindo em breve!! o ator da 6ª temporada da série revelou uma possível época para a estreia, confira em: https://t.co/8dntnzx0l9
-grata! sua ajuda é importante demais. ajude empresas pequenas, elas agradecem muito 💛</t>
   </si>
   <si>
     <t>@kika_cavalcante poxa, eu curtia filmes, mas ultimamente é tanta lacração que ando sem vontade. a última série que vi e até gostei foi peaky blinders.</t>
@@ -2201,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:SU302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2217,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C1" s="7"/>
     </row>
@@ -2270,9 +2266,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="87" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2280,7 +2276,7 @@
     </row>
     <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2288,7 +2284,7 @@
     </row>
     <row r="10" spans="1:3" ht="87" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2296,7 +2292,7 @@
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2304,7 +2300,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2312,7 +2308,7 @@
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2320,7 +2316,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2328,7 +2324,7 @@
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2336,7 +2332,7 @@
     </row>
     <row r="16" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2344,7 +2340,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2352,7 +2348,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2360,7 +2356,7 @@
     </row>
     <row r="19" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2368,7 +2364,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2376,7 +2372,7 @@
     </row>
     <row r="21" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2384,7 +2380,7 @@
     </row>
     <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2392,7 +2388,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2400,7 +2396,7 @@
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2408,7 +2404,7 @@
     </row>
     <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2416,7 +2412,7 @@
     </row>
     <row r="26" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -2424,7 +2420,7 @@
     </row>
     <row r="27" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2432,7 +2428,7 @@
     </row>
     <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2440,7 +2436,7 @@
     </row>
     <row r="29" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2448,7 +2444,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2456,7 +2452,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2464,7 +2460,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2472,7 +2468,7 @@
     </row>
     <row r="33" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2480,7 +2476,7 @@
     </row>
     <row r="34" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -2488,7 +2484,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2496,7 +2492,7 @@
     </row>
     <row r="36" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2504,7 +2500,7 @@
     </row>
     <row r="37" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -2512,7 +2508,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -2520,7 +2516,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -2528,7 +2524,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -2536,7 +2532,7 @@
     </row>
     <row r="41" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2544,7 +2540,7 @@
     </row>
     <row r="42" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2552,7 +2548,7 @@
     </row>
     <row r="43" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -2560,7 +2556,7 @@
     </row>
     <row r="44" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -2568,7 +2564,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -2576,7 +2572,7 @@
     </row>
     <row r="46" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -2584,7 +2580,7 @@
     </row>
     <row r="47" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2592,7 +2588,7 @@
     </row>
     <row r="48" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2600,7 +2596,7 @@
     </row>
     <row r="49" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2608,7 +2604,7 @@
     </row>
     <row r="50" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2616,7 +2612,7 @@
     </row>
     <row r="51" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2624,7 +2620,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -2632,7 +2628,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2640,7 +2636,7 @@
     </row>
     <row r="54" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -2648,7 +2644,7 @@
     </row>
     <row r="55" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2656,7 +2652,7 @@
     </row>
     <row r="56" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2664,7 +2660,7 @@
     </row>
     <row r="57" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2672,7 +2668,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2680,7 +2676,7 @@
     </row>
     <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2688,7 +2684,7 @@
     </row>
     <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2696,12 +2692,12 @@
     </row>
     <row r="61" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2709,7 +2705,7 @@
     </row>
     <row r="63" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2717,7 +2713,7 @@
     </row>
     <row r="64" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2725,7 +2721,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2733,7 +2729,7 @@
     </row>
     <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2741,7 +2737,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2749,7 +2745,7 @@
     </row>
     <row r="68" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2757,7 +2753,7 @@
     </row>
     <row r="69" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2765,7 +2761,7 @@
     </row>
     <row r="70" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2773,7 +2769,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2781,7 +2777,7 @@
     </row>
     <row r="72" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2789,7 +2785,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2797,7 +2793,7 @@
     </row>
     <row r="74" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2805,7 +2801,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2813,7 +2809,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2821,7 +2817,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2829,7 +2825,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2837,7 +2833,7 @@
     </row>
     <row r="79" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2845,7 +2841,7 @@
     </row>
     <row r="80" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2853,7 +2849,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2861,7 +2857,7 @@
     </row>
     <row r="82" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2869,7 +2865,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2877,7 +2873,7 @@
     </row>
     <row r="84" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2885,7 +2881,7 @@
     </row>
     <row r="85" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2893,7 +2889,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2901,7 +2897,7 @@
     </row>
     <row r="87" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2909,7 +2905,7 @@
     </row>
     <row r="88" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2917,7 +2913,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2925,7 +2921,7 @@
     </row>
     <row r="90" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2933,7 +2929,7 @@
     </row>
     <row r="91" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2941,7 +2937,7 @@
     </row>
     <row r="92" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2949,7 +2945,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2957,7 +2953,7 @@
     </row>
     <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2965,7 +2961,7 @@
     </row>
     <row r="95" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -2973,7 +2969,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2981,7 +2977,7 @@
     </row>
     <row r="97" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2989,7 +2985,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -2997,7 +2993,7 @@
     </row>
     <row r="99" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3005,7 +3001,7 @@
     </row>
     <row r="100" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3013,7 +3009,7 @@
     </row>
     <row r="101" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3021,7 +3017,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3029,7 +3025,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3037,7 +3033,7 @@
     </row>
     <row r="104" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3045,7 +3041,7 @@
     </row>
     <row r="105" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3053,7 +3049,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3061,7 +3057,7 @@
     </row>
     <row r="107" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3069,7 +3065,7 @@
     </row>
     <row r="108" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3077,7 +3073,7 @@
     </row>
     <row r="109" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3085,7 +3081,7 @@
     </row>
     <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -3093,7 +3089,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3101,7 +3097,7 @@
     </row>
     <row r="112" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -3109,7 +3105,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3117,7 +3113,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3125,7 +3121,7 @@
     </row>
     <row r="115" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -3133,7 +3129,7 @@
     </row>
     <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3141,7 +3137,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -3149,7 +3145,7 @@
     </row>
     <row r="118" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -3157,7 +3153,7 @@
     </row>
     <row r="119" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -3165,7 +3161,7 @@
     </row>
     <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -3173,7 +3169,7 @@
     </row>
     <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3181,7 +3177,7 @@
     </row>
     <row r="122" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3189,7 +3185,7 @@
     </row>
     <row r="123" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -3197,7 +3193,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3205,7 +3201,7 @@
     </row>
     <row r="125" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -3213,7 +3209,7 @@
     </row>
     <row r="126" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -3221,7 +3217,7 @@
     </row>
     <row r="127" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3229,7 +3225,7 @@
     </row>
     <row r="128" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -3237,7 +3233,7 @@
     </row>
     <row r="129" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -3245,7 +3241,7 @@
     </row>
     <row r="130" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3253,7 +3249,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3261,7 +3257,7 @@
     </row>
     <row r="132" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -3269,7 +3265,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3277,7 +3273,7 @@
     </row>
     <row r="134" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3285,7 +3281,7 @@
     </row>
     <row r="135" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -3293,7 +3289,7 @@
     </row>
     <row r="136" spans="1:2" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -3301,7 +3297,7 @@
     </row>
     <row r="137" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -3309,7 +3305,7 @@
     </row>
     <row r="138" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -3317,7 +3313,7 @@
     </row>
     <row r="139" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3325,7 +3321,7 @@
     </row>
     <row r="140" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3333,7 +3329,7 @@
     </row>
     <row r="141" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -3341,7 +3337,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -3349,7 +3345,7 @@
     </row>
     <row r="143" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -3357,7 +3353,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -3365,7 +3361,7 @@
     </row>
     <row r="145" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -3373,7 +3369,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -3381,7 +3377,7 @@
     </row>
     <row r="147" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3389,7 +3385,7 @@
     </row>
     <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -3397,7 +3393,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3405,7 +3401,7 @@
     </row>
     <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -3413,7 +3409,7 @@
     </row>
     <row r="151" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -3421,7 +3417,7 @@
     </row>
     <row r="152" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3429,7 +3425,7 @@
     </row>
     <row r="153" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -3437,7 +3433,7 @@
     </row>
     <row r="154" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -3445,7 +3441,7 @@
     </row>
     <row r="155" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3453,7 +3449,7 @@
     </row>
     <row r="156" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3461,7 +3457,7 @@
     </row>
     <row r="157" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -3469,7 +3465,7 @@
     </row>
     <row r="158" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3477,7 +3473,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -3485,7 +3481,7 @@
     </row>
     <row r="160" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -3493,7 +3489,7 @@
     </row>
     <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -3501,7 +3497,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -3509,7 +3505,7 @@
     </row>
     <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -3517,7 +3513,7 @@
     </row>
     <row r="164" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -3525,7 +3521,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -3533,7 +3529,7 @@
     </row>
     <row r="166" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -3541,7 +3537,7 @@
     </row>
     <row r="167" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -3549,7 +3545,7 @@
     </row>
     <row r="168" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -3557,7 +3553,7 @@
     </row>
     <row r="169" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -3565,7 +3561,7 @@
     </row>
     <row r="170" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -3573,7 +3569,7 @@
     </row>
     <row r="171" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -3581,7 +3577,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -3589,7 +3585,7 @@
     </row>
     <row r="173" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -3597,7 +3593,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -3605,7 +3601,7 @@
     </row>
     <row r="175" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -3613,7 +3609,7 @@
     </row>
     <row r="176" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -3621,7 +3617,7 @@
     </row>
     <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -3629,7 +3625,7 @@
     </row>
     <row r="178" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -3637,7 +3633,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -3645,7 +3641,7 @@
     </row>
     <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -3653,7 +3649,7 @@
     </row>
     <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3661,7 +3657,7 @@
     </row>
     <row r="182" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -3669,7 +3665,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -3677,7 +3673,7 @@
     </row>
     <row r="184" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -3685,7 +3681,7 @@
     </row>
     <row r="185" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -3693,7 +3689,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -3701,7 +3697,7 @@
     </row>
     <row r="187" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -3709,7 +3705,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -3717,7 +3713,7 @@
     </row>
     <row r="189" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -3725,7 +3721,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3733,7 +3729,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="192" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -3749,7 +3745,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -3757,7 +3753,7 @@
     </row>
     <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -3765,7 +3761,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -3773,7 +3769,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -3781,7 +3777,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -3789,7 +3785,7 @@
     </row>
     <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -3797,7 +3793,7 @@
     </row>
     <row r="199" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -3805,7 +3801,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -3813,7 +3809,7 @@
     </row>
     <row r="201" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -3821,7 +3817,7 @@
     </row>
     <row r="202" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -3829,7 +3825,7 @@
     </row>
     <row r="203" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A203" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -3837,7 +3833,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -3845,7 +3841,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -3853,7 +3849,7 @@
     </row>
     <row r="206" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -3861,7 +3857,7 @@
     </row>
     <row r="207" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -3869,7 +3865,7 @@
     </row>
     <row r="208" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A208" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -3877,7 +3873,7 @@
     </row>
     <row r="209" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A209" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -3885,7 +3881,7 @@
     </row>
     <row r="210" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A210" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -3893,7 +3889,7 @@
     </row>
     <row r="211" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -3901,7 +3897,7 @@
     </row>
     <row r="212" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -3909,7 +3905,7 @@
     </row>
     <row r="213" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -3917,7 +3913,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -3925,7 +3921,7 @@
     </row>
     <row r="215" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A215" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -3933,7 +3929,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -3941,7 +3937,7 @@
     </row>
     <row r="217" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -3949,7 +3945,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -3957,7 +3953,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -3965,7 +3961,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -3973,7 +3969,7 @@
     </row>
     <row r="221" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A221" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -3981,7 +3977,7 @@
     </row>
     <row r="222" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -3989,7 +3985,7 @@
     </row>
     <row r="223" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -3997,7 +3993,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -4005,7 +4001,7 @@
     </row>
     <row r="225" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -4013,7 +4009,7 @@
     </row>
     <row r="226" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -4021,7 +4017,7 @@
     </row>
     <row r="227" spans="1:515" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A227" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -4029,7 +4025,7 @@
     </row>
     <row r="228" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A228" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -4037,7 +4033,7 @@
     </row>
     <row r="229" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A229" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -4045,7 +4041,7 @@
     </row>
     <row r="230" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A230" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -4053,7 +4049,7 @@
     </row>
     <row r="231" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="232" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -4069,7 +4065,7 @@
     </row>
     <row r="233" spans="1:515" ht="87" x14ac:dyDescent="0.35">
       <c r="A233" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -6093,7 +6089,7 @@
     </row>
     <row r="234" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A234" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -6101,7 +6097,7 @@
     </row>
     <row r="235" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -6109,7 +6105,7 @@
     </row>
     <row r="236" spans="1:515" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A236" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -6117,7 +6113,7 @@
     </row>
     <row r="237" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A237" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -6125,7 +6121,7 @@
     </row>
     <row r="238" spans="1:515" x14ac:dyDescent="0.35">
       <c r="A238" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -6133,7 +6129,7 @@
     </row>
     <row r="239" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A239" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6141,7 +6137,7 @@
     </row>
     <row r="240" spans="1:515" ht="29" x14ac:dyDescent="0.35">
       <c r="A240" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -6149,7 +6145,7 @@
     </row>
     <row r="241" spans="1:2" ht="116" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -6157,7 +6153,7 @@
     </row>
     <row r="242" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -6165,7 +6161,7 @@
     </row>
     <row r="243" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A243" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -6173,7 +6169,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -6181,7 +6177,7 @@
     </row>
     <row r="245" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -6189,7 +6185,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -6197,7 +6193,7 @@
     </row>
     <row r="247" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A247" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -6205,7 +6201,7 @@
     </row>
     <row r="248" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A248" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -6213,7 +6209,7 @@
     </row>
     <row r="249" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A249" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -6221,7 +6217,7 @@
     </row>
     <row r="250" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A250" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -6229,7 +6225,7 @@
     </row>
     <row r="251" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -6237,7 +6233,7 @@
     </row>
     <row r="252" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -6245,7 +6241,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -6253,7 +6249,7 @@
     </row>
     <row r="254" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A254" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -6261,7 +6257,7 @@
     </row>
     <row r="255" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A255" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -6269,7 +6265,7 @@
     </row>
     <row r="256" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A256" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -6277,7 +6273,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -6285,7 +6281,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -6293,7 +6289,7 @@
     </row>
     <row r="259" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A259" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -6301,7 +6297,7 @@
     </row>
     <row r="260" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A260" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -6309,7 +6305,7 @@
     </row>
     <row r="261" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A261" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6317,7 +6313,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6325,7 +6321,7 @@
     </row>
     <row r="263" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A263" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -6333,7 +6329,7 @@
     </row>
     <row r="264" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A264" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -6341,7 +6337,7 @@
     </row>
     <row r="265" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A265" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6349,7 +6345,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6357,7 +6353,7 @@
     </row>
     <row r="267" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A267" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -6365,7 +6361,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6373,7 +6369,7 @@
     </row>
     <row r="269" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A269" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -6381,7 +6377,7 @@
     </row>
     <row r="270" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A270" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6389,7 +6385,7 @@
     </row>
     <row r="271" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A271" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6397,7 +6393,7 @@
     </row>
     <row r="272" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6405,7 +6401,7 @@
     </row>
     <row r="273" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6413,7 +6409,7 @@
     </row>
     <row r="274" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -6421,7 +6417,7 @@
     </row>
     <row r="275" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A275" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -6429,7 +6425,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6437,7 +6433,7 @@
     </row>
     <row r="277" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6445,7 +6441,7 @@
     </row>
     <row r="278" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -6453,7 +6449,7 @@
     </row>
     <row r="279" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A279" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -6461,7 +6457,7 @@
     </row>
     <row r="280" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A280" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6469,7 +6465,7 @@
     </row>
     <row r="281" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6477,7 +6473,7 @@
     </row>
     <row r="282" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A282" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6485,7 +6481,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -6493,7 +6489,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -6501,7 +6497,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6509,7 +6505,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6517,7 +6513,7 @@
     </row>
     <row r="287" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A287" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6525,7 +6521,7 @@
     </row>
     <row r="288" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A288" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6533,7 +6529,7 @@
     </row>
     <row r="289" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A289" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -6541,7 +6537,7 @@
     </row>
     <row r="290" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A290" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6549,7 +6545,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -6557,7 +6553,7 @@
     </row>
     <row r="292" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6565,7 +6561,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6573,7 +6569,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -6581,7 +6577,7 @@
     </row>
     <row r="295" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6589,7 +6585,7 @@
     </row>
     <row r="296" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -6597,7 +6593,7 @@
     </row>
     <row r="297" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6605,7 +6601,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -6613,7 +6609,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -6621,7 +6617,7 @@
     </row>
     <row r="300" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -6629,7 +6625,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6637,7 +6633,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B302">
         <f>SUM(B2:B301)/300</f>
@@ -6666,15 +6662,15 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -6682,7 +6678,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -6690,7 +6686,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -6698,7 +6694,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -6706,7 +6702,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -6714,7 +6710,7 @@
     </row>
     <row r="7" spans="1:17" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -6722,7 +6718,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6730,7 +6726,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -6738,7 +6734,7 @@
     </row>
     <row r="10" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -6746,7 +6742,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -6754,7 +6750,7 @@
     </row>
     <row r="12" spans="1:17" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -6762,7 +6758,7 @@
     </row>
     <row r="13" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -6770,7 +6766,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -6778,18 +6774,18 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="Q15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -6797,7 +6793,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -6805,7 +6801,7 @@
     </row>
     <row r="18" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -6813,7 +6809,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -6821,7 +6817,7 @@
     </row>
     <row r="20" spans="1:2" ht="232" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -6829,7 +6825,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -6837,7 +6833,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -6845,7 +6841,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6853,7 +6849,7 @@
     </row>
     <row r="24" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -6861,7 +6857,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -6869,7 +6865,7 @@
     </row>
     <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -6877,7 +6873,7 @@
     </row>
     <row r="27" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -6885,7 +6881,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -6893,7 +6889,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -6901,7 +6897,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -6909,7 +6905,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -6917,7 +6913,7 @@
     </row>
     <row r="32" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -6925,7 +6921,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -6933,7 +6929,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -6941,7 +6937,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -6949,7 +6945,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -6957,7 +6953,7 @@
     </row>
     <row r="37" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -6965,7 +6961,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -6973,7 +6969,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -6981,7 +6977,7 @@
     </row>
     <row r="40" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -6989,7 +6985,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -6997,7 +6993,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -7005,7 +7001,7 @@
     </row>
     <row r="43" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -7013,7 +7009,7 @@
     </row>
     <row r="44" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -7021,7 +7017,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -7029,7 +7025,7 @@
     </row>
     <row r="46" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -7037,7 +7033,7 @@
     </row>
     <row r="47" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -7045,7 +7041,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -7053,7 +7049,7 @@
     </row>
     <row r="49" spans="1:2" ht="246.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -7061,7 +7057,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -7069,7 +7065,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -7077,7 +7073,7 @@
     </row>
     <row r="52" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -7085,7 +7081,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -7093,7 +7089,7 @@
     </row>
     <row r="54" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -7101,7 +7097,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7109,7 +7105,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7117,7 +7113,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -7125,7 +7121,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -7133,7 +7129,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7141,7 +7137,7 @@
     </row>
     <row r="60" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7149,7 +7145,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7157,7 +7153,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -7165,7 +7161,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7173,7 +7169,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7181,7 +7177,7 @@
     </row>
     <row r="65" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -7189,7 +7185,7 @@
     </row>
     <row r="66" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -7197,7 +7193,7 @@
     </row>
     <row r="67" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7205,7 +7201,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7213,7 +7209,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7221,7 +7217,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7229,7 +7225,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7237,7 +7233,7 @@
     </row>
     <row r="72" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -7245,7 +7241,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7253,7 +7249,7 @@
     </row>
     <row r="74" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -7261,7 +7257,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -7269,7 +7265,7 @@
     </row>
     <row r="76" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -7277,7 +7273,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7285,7 +7281,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7293,7 +7289,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7301,7 +7297,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7309,7 +7305,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -7317,7 +7313,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7325,7 +7321,7 @@
     </row>
     <row r="83" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7333,7 +7329,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7341,7 +7337,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7349,7 +7345,7 @@
     </row>
     <row r="86" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -7357,7 +7353,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -7365,7 +7361,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -7373,7 +7369,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -7381,7 +7377,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -7389,7 +7385,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -7397,7 +7393,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -7405,7 +7401,7 @@
     </row>
     <row r="93" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -7413,7 +7409,7 @@
     </row>
     <row r="94" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -7421,7 +7417,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -7429,7 +7425,7 @@
     </row>
     <row r="96" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -7437,7 +7433,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -7445,7 +7441,7 @@
     </row>
     <row r="98" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -7453,7 +7449,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -7461,7 +7457,7 @@
     </row>
     <row r="100" spans="1:2" ht="290" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -7469,7 +7465,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -7477,7 +7473,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -7485,7 +7481,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -7493,7 +7489,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -7501,7 +7497,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -7509,7 +7505,7 @@
     </row>
     <row r="106" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -7517,7 +7513,7 @@
     </row>
     <row r="107" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -7525,7 +7521,7 @@
     </row>
     <row r="108" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -7533,7 +7529,7 @@
     </row>
     <row r="109" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -7541,7 +7537,7 @@
     </row>
     <row r="110" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -7549,7 +7545,7 @@
     </row>
     <row r="111" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -7557,7 +7553,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -7565,7 +7561,7 @@
     </row>
     <row r="113" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -7573,7 +7569,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -7581,7 +7577,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -7589,7 +7585,7 @@
     </row>
     <row r="116" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -7597,7 +7593,7 @@
     </row>
     <row r="117" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -7605,7 +7601,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -7613,7 +7609,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -7621,7 +7617,7 @@
     </row>
     <row r="120" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -7629,7 +7625,7 @@
     </row>
     <row r="121" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -7637,7 +7633,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -7645,7 +7641,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -7653,7 +7649,7 @@
     </row>
     <row r="124" spans="1:2" ht="203" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -7661,7 +7657,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -7669,7 +7665,7 @@
     </row>
     <row r="126" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -7677,7 +7673,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -7685,7 +7681,7 @@
     </row>
     <row r="128" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -7693,7 +7689,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -7701,7 +7697,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -7709,7 +7705,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -7717,7 +7713,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -7725,7 +7721,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -7733,7 +7729,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -7741,7 +7737,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -7749,7 +7745,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -7757,7 +7753,7 @@
     </row>
     <row r="137" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -7765,7 +7761,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -7773,7 +7769,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -7781,7 +7777,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -7789,7 +7785,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -7797,7 +7793,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -7805,7 +7801,7 @@
     </row>
     <row r="143" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -7813,7 +7809,7 @@
     </row>
     <row r="144" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -7821,7 +7817,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -7829,7 +7825,7 @@
     </row>
     <row r="146" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -7837,7 +7833,7 @@
     </row>
     <row r="147" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -7845,7 +7841,7 @@
     </row>
     <row r="148" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -7853,7 +7849,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -7861,7 +7857,7 @@
     </row>
     <row r="150" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -7869,7 +7865,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -7877,7 +7873,7 @@
     </row>
     <row r="152" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -7885,7 +7881,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -7893,7 +7889,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -7901,7 +7897,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -7909,7 +7905,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -7917,7 +7913,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -7925,7 +7921,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -7933,7 +7929,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -7941,7 +7937,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -7949,7 +7945,7 @@
     </row>
     <row r="161" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -7957,7 +7953,7 @@
     </row>
     <row r="162" spans="1:2" ht="87" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -7965,7 +7961,7 @@
     </row>
     <row r="163" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -7973,7 +7969,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -7981,7 +7977,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -7989,7 +7985,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -7997,7 +7993,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -8005,7 +8001,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -8013,7 +8009,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -8021,7 +8017,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -8029,7 +8025,7 @@
     </row>
     <row r="171" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -8037,7 +8033,7 @@
     </row>
     <row r="172" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -8045,7 +8041,7 @@
     </row>
     <row r="173" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -8053,7 +8049,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -8061,7 +8057,7 @@
     </row>
     <row r="175" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -8069,7 +8065,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -8077,7 +8073,7 @@
     </row>
     <row r="177" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -8085,7 +8081,7 @@
     </row>
     <row r="178" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -8093,7 +8089,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -8101,7 +8097,7 @@
     </row>
     <row r="180" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -8109,7 +8105,7 @@
     </row>
     <row r="181" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -8117,7 +8113,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -8125,7 +8121,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -8133,7 +8129,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -8141,7 +8137,7 @@
     </row>
     <row r="185" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -8149,7 +8145,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -8157,7 +8153,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -8165,7 +8161,7 @@
     </row>
     <row r="188" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A188" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -8173,7 +8169,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -8181,7 +8177,7 @@
     </row>
     <row r="190" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -8189,7 +8185,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -8197,7 +8193,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -8205,7 +8201,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -8213,7 +8209,7 @@
     </row>
     <row r="194" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A194" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -8221,7 +8217,7 @@
     </row>
     <row r="195" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A195" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -8229,7 +8225,7 @@
     </row>
     <row r="196" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A196" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -8237,7 +8233,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -8245,7 +8241,7 @@
     </row>
     <row r="198" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -8253,7 +8249,7 @@
     </row>
     <row r="199" spans="1:2" ht="58" x14ac:dyDescent="0.35">
       <c r="A199" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -8261,7 +8257,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -8269,7 +8265,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -8277,7 +8273,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B202">
         <f>SUM(B2:B201)/200</f>
